--- a/biology/Biochimie/Arabinosyl-nucléoside/Arabinosyl-nucléoside.xlsx
+++ b/biology/Biochimie/Arabinosyl-nucléoside/Arabinosyl-nucléoside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arabinosyl-nucl%C3%A9oside</t>
+          <t>Arabinosyl-nucléoside</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un arabinosyl-nucléoside est un analogue structurel de nucléoside dans lequel l'ose est le β-D-arabinofuranose à la place du β-D-ribofuranose.
 			β-D-Arabinose
@@ -492,7 +504,7 @@
 			Adénosine.
 			6-O-Méthylguanosine.
 			Cytidine.
-Ils sont généralement utilisés comme cytostatiques et antiviraux[1],[2]. D'autres exemples et dérivés sont représentés ci-dessous :
+Ils sont généralement utilisés comme cytostatiques et antiviraux,. D'autres exemples et dérivés sont représentés ci-dessous :
 			Fludarabine.
 			Clofarabine.
 			Sorivudine (en).
